--- a/resultados/quiche.xlsx
+++ b/resultados/quiche.xlsx
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
